--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_flow_time.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_flow_time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C02D3-CEE7-41E4-8296-B4EF931FB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30282C-9254-4A83-ACE4-C7F67B986619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D658C7E-A61A-4136-8743-3329CB1EDB16}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A13:D16"/>
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>9.8410230000000008E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,8 +424,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>B2/4</f>
-        <v>0.25</v>
+        <v>2.4800000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,8 +432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B16" si="0">B3/4</f>
-        <v>6.25E-2</v>
+        <v>5.3999999999999998E-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,8 +440,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>2.2099999999999998E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -451,8 +448,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,8 +456,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>7.3200000000000002E-6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,8 +464,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>4.6600000000000003E-6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,8 +472,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>2.9299999999999999E-6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,8 +480,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>1.81E-6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -496,8 +488,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>1.08E-6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,62 +496,101 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>6.5600000000000005E-7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.8299999999999998E-7</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2000000000000001E-7</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.2499999999999999E-7</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.0300000000000001E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.8700000000000002E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.1200000000000001E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.14E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.2199999999999996E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
   </sheetData>

--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_flow_time.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_flow_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30282C-9254-4A83-ACE4-C7F67B986619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B03925C-53CB-402C-9ED1-7AD8843BA9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D658C7E-A61A-4136-8743-3329CB1EDB16}"/>
   </bookViews>
@@ -55,15 +55,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,13 +77,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB224C2-E114-4D3B-B787-55125E716FA5}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,186 +434,340 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>9.8410230000000008E-3</v>
+        <v>9.0645639303730801E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.4800000000000001E-4</v>
+      <c r="B3" s="2">
+        <v>4.8494882259608101E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>5.3999999999999998E-5</v>
+      <c r="B4" s="2">
+        <v>6.1647930741714495E-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.2099999999999998E-5</v>
+      <c r="B5" s="2">
+        <v>1.2109054116809501E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.2E-5</v>
+      <c r="B6" s="2">
+        <v>3.84620545391188E-6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>7.3200000000000002E-6</v>
+      <c r="B7" s="2">
+        <v>1.9211661829017799E-6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>4.6600000000000003E-6</v>
+      <c r="B8" s="2">
+        <v>1.27355974756811E-6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2.9299999999999999E-6</v>
+      <c r="B9" s="2">
+        <v>9.689083460462581E-7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.81E-6</v>
+      <c r="B10" s="2">
+        <v>7.8292398807427297E-7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.08E-6</v>
+      <c r="B11" s="2">
+        <v>6.4971914041207399E-7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>6.5600000000000005E-7</v>
+      <c r="B12" s="2">
+        <v>5.4573212913636097E-7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3.8299999999999998E-7</v>
+      <c r="B13" s="2">
+        <v>4.6170305178640203E-7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.2000000000000001E-7</v>
+      <c r="B14" s="2">
+        <v>3.9195875036619398E-7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1.2499999999999999E-7</v>
+      <c r="B15" s="2">
+        <v>3.3385894687318402E-7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>7.0300000000000001E-8</v>
+      <c r="B16" s="2">
+        <v>2.8522749792658802E-7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>3.8700000000000002E-8</v>
+      <c r="B17" s="2">
+        <v>2.4361464736355302E-7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.1200000000000001E-8</v>
+      <c r="B18" s="2">
+        <v>2.0108339072730999E-7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1.14E-8</v>
+      <c r="B19" s="2">
+        <v>1.7700074086085999E-7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>6.2199999999999996E-9</v>
+      <c r="B20" s="2">
+        <v>1.5304942682833E-7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.3561024518096501E-7</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.1509915944738E-7</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.8986130988037402E-8</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.5634019496327797E-8</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7.4266953440042895E-8</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6.4639400503281999E-8</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.6254372316289502E-8</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.9183281698979501E-8</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.3124650710294002E-8</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.78819302640894E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.3567012086772102E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.9497709746373799E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.60500767258345E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.31325485416189E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.0609933338497499E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.84367304734062E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.6542312630688901E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.4907017906797201E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.3502329088975901E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.2244756374042999E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.11491045100028E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.0197149136051199E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9.3657640566856205E-9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
